--- a/ESXi/Script/Resources/Template_LAB.xlsx
+++ b/ESXi/Script/Resources/Template_LAB.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t/>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>createDomain</t>
+  </si>
+  <si>
+    <t>win10</t>
+  </si>
+  <si>
+    <t>joinDomain</t>
+  </si>
+  <si>
+    <t>kali</t>
   </si>
 </sst>
 </file>
@@ -53,11 +65,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -372,12 +381,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -385,90 +394,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
